--- a/docs/argo-sub-notif.xlsx
+++ b/docs/argo-sub-notif.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$40</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="225">
   <si>
     <t>Path</t>
   </si>
@@ -169,7 +169,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -188,7 +188,7 @@
     <t>Subscription.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -204,7 +204,7 @@
     <t>Subscription.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -224,7 +224,7 @@
     <t>Subscription.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -256,7 +256,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -286,7 +286,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -309,7 +309,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -365,7 +365,7 @@
     <t>Subscription.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {[]} {[]}
 </t>
   </si>
   <si>
@@ -381,7 +381,7 @@
     <t>Subscription.end</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -400,7 +400,7 @@
     <t>Subscription.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -456,11 +456,17 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>trigger-event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-trigger-event}
+    <t>trigger-description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-trigger-event]]} {[]}
 </t>
+  </si>
+  <si>
+    <t>Subscription Trigger Event Description Extension</t>
+  </si>
+  <si>
+    <t>A formal expression, or a reference to a named expression may also be inlined. If the expression is a [FHIRPath](http://hl7.org/fhirpath/) expression, use the [Subscription Trigger Event FHIRPath Extension](StructureDefinition-extension-trigger-fhirpath.html)</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -471,13 +477,29 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>trigger-fhirpath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/StructureDefinition/cqif-fhirPathExpression]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Subscription Trigger Event FHIRPath Extension</t>
+  </si>
+  <si>
+    <t>If the expression is a [FHIRPath](http://hl7.org/fhirpath/) expression, it evaluates in the context of a resource of one of the types identified in the [Subscription Event Focus Extension](StructureDefinition-extension-event-focus.html), and may also refer to the variable `%previous`  for delta comparisons.</t>
+  </si>
+  <si>
     <t>event-focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-event-focus}
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-event-focus]]} {[]}
 </t>
   </si>
   <si>
+    <t>Subscription Event Focus Extension</t>
+  </si>
+  <si>
     <t>Subscription.criteria.extension.id</t>
   </si>
   <si>
@@ -538,7 +560,7 @@
     <t>Subscription.criteria.value</t>
   </si>
   <si>
-    <t xml:space="preserve">null
+    <t xml:space="preserve">null {[]} {[]}
 </t>
   </si>
   <si>
@@ -566,7 +588,7 @@
     <t>Subscription.channel</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -589,7 +611,7 @@
     <t>payload-profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-payload-profile}
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-payload-profile]]} {[]}
 </t>
   </si>
   <si>
@@ -678,7 +700,7 @@
     <t>Subscription.tag</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -846,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -856,7 +878,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.9609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.87890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.37109375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -2703,12 +2725,14 @@
         <v>141</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -2766,10 +2790,10 @@
         <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>41</v>
@@ -2778,25 +2802,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>41</v>
@@ -2805,13 +2829,13 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2871,10 +2895,10 @@
         <v>40</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>41</v>
@@ -2883,23 +2907,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -2908,13 +2934,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2965,22 +2991,22 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -2988,18 +3014,18 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
@@ -3011,17 +3037,15 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3058,25 +3082,25 @@
         <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3085,7 +3109,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3093,18 +3117,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3116,16 +3140,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3133,7 +3157,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>41</v>
@@ -3163,25 +3187,25 @@
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3190,15 +3214,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3212,7 +3236,7 @@
         <v>48</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
@@ -3221,22 +3245,24 @@
         <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>41</v>
@@ -3254,13 +3280,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3281,7 +3307,7 @@
         <v>164</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>48</v>
@@ -3299,7 +3325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>165</v>
       </c>
@@ -3309,13 +3335,13 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
@@ -3324,13 +3350,13 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3339,7 +3365,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -3354,16 +3380,16 @@
         <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="X24" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="W24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3381,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3396,7 +3422,7 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3404,7 +3430,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3424,16 +3450,16 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3457,7 +3483,7 @@
         <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>41</v>
@@ -3484,7 +3510,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3505,9 +3531,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3515,13 +3541,13 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -3530,13 +3556,13 @@
         <v>49</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>175</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3587,10 +3613,10 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>48</v>
@@ -3599,7 +3625,7 @@
         <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>178</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>41</v>
@@ -3608,9 +3634,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3618,28 +3644,28 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3690,10 +3716,10 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>48</v>
@@ -3702,10 +3728,10 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3713,7 +3739,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3724,7 +3750,7 @@
         <v>39</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -3736,13 +3762,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3781,23 +3807,25 @@
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -3806,31 +3834,29 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -3839,7 +3865,7 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>182</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>135</v>
@@ -3884,16 +3910,14 @@
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>139</v>
@@ -3905,10 +3929,10 @@
         <v>40</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
@@ -3917,23 +3941,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>188</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -3942,13 +3968,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3999,22 +4025,22 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4022,18 +4048,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4045,17 +4071,15 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4092,25 +4116,25 @@
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4119,7 +4143,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4127,18 +4151,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
@@ -4150,16 +4174,16 @@
         <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4167,7 +4191,7 @@
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>186</v>
+        <v>41</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>41</v>
@@ -4197,25 +4221,25 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
@@ -4224,15 +4248,15 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4246,7 +4270,7 @@
         <v>48</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
@@ -4258,19 +4282,21 @@
         <v>61</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>41</v>
@@ -4315,7 +4341,7 @@
         <v>164</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>48</v>
@@ -4333,49 +4359,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>41</v>
+        <v>195</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -4417,13 +4441,13 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>41</v>
@@ -4440,38 +4464,40 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>41</v>
+        <v>197</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>194</v>
+        <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -4496,13 +4522,13 @@
         <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>41</v>
@@ -4520,13 +4546,13 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
@@ -4535,15 +4561,15 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4557,7 +4583,7 @@
         <v>48</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -4566,17 +4592,15 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -4601,13 +4625,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -4625,10 +4649,10 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>48</v>
@@ -4646,9 +4670,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4656,13 +4680,13 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>48</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -4671,16 +4695,16 @@
         <v>49</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -4730,7 +4754,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4753,7 +4777,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4764,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>41</v>
@@ -4779,13 +4803,13 @@
         <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4835,13 +4859,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -4858,7 +4882,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4881,16 +4905,16 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -4916,13 +4940,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>215</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>217</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -4940,7 +4964,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -4961,8 +4985,113 @@
         <v>41</v>
       </c>
     </row>
+    <row r="40" hidden="true">
+      <c r="A40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK39">
+  <autoFilter ref="A1:AK40">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4972,7 +5101,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI39">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/argo-sub-notif.xlsx
+++ b/docs/argo-sub-notif.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="232">
   <si>
     <t>Path</t>
   </si>
@@ -500,6 +500,9 @@
     <t>Subscription Event Focus Extension</t>
   </si>
   <si>
+    <t>The type of the required data, specified as the type name of a resource.</t>
+  </si>
+  <si>
     <t>Subscription.criteria.extension.id</t>
   </si>
   <si>
@@ -539,13 +542,16 @@
     <t>Subscription.criteria.extension.valueCode</t>
   </si>
   <si>
+    <t>valueCode</t>
+  </si>
+  <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="Schedule"/&gt;</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="Slot"/&gt;</t>
   </si>
   <si>
     <t>The type of the required data, specified as the type name of a resource. For profiles, this value is set to the type of the base resource of the profile.</t>
@@ -615,6 +621,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">The profile of the required data to be sent in the payload.
+</t>
+  </si>
+  <si>
     <t>Subscription.channel.extension.id</t>
   </si>
   <si>
@@ -628,6 +638,18 @@
   </si>
   <si>
     <t>Subscription.channel.extension.valueUri</t>
+  </si>
+  <si>
+    <t>valueUri</t>
+  </si>
+  <si>
+    <t>Payload profile URI</t>
+  </si>
+  <si>
+    <t>The uri of payload when sending notifications to a subscriber.</t>
+  </si>
+  <si>
+    <t>The Argonaut Scheduling Schedule Notification Profile defines the payload when sending notifications to a subscriber described in [Use Case 3 Prefetching Open Slots](patient-scheduling.html#use-case-3-prefetching-open-slots).   The actual notification is triggered by a Slot instance defined in  `criteria` .  The Slot's `schedule' element identifies the Schedule resource instance that populates the payload.</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/argo-sched-notif"/&gt;</t>
@@ -2940,7 +2962,7 @@
         <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3014,7 +3036,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3043,7 +3065,7 @@
         <v>131</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3109,7 +3131,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3117,7 +3139,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3146,7 +3168,7 @@
         <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>96</v>
@@ -3190,7 +3212,7 @@
         <v>137</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>41</v>
@@ -3214,7 +3236,7 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3222,7 +3244,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3248,13 +3270,13 @@
         <v>61</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3262,7 +3284,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>41</v>
@@ -3304,7 +3326,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>48</v>
@@ -3327,9 +3349,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -3353,10 +3377,10 @@
         <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3365,7 +3389,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -3386,10 +3410,10 @@
         <v>106</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3407,7 +3431,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3430,7 +3454,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3453,13 +3477,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3483,7 +3507,7 @@
         <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>41</v>
@@ -3510,7 +3534,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3533,7 +3557,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3559,10 +3583,10 @@
         <v>122</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3613,7 +3637,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3636,7 +3660,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3659,13 +3683,13 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3716,7 +3740,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>48</v>
@@ -3728,7 +3752,7 @@
         <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>41</v>
@@ -3739,7 +3763,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3768,7 +3792,7 @@
         <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3834,7 +3858,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -3842,7 +3866,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3943,10 +3967,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>41</v>
@@ -3968,13 +3992,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4048,7 +4072,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4077,7 +4101,7 @@
         <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4143,7 +4167,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4151,7 +4175,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4180,7 +4204,7 @@
         <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>96</v>
@@ -4224,7 +4248,7 @@
         <v>137</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
@@ -4248,7 +4272,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4256,7 +4280,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4282,13 +4306,13 @@
         <v>61</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4296,7 +4320,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>41</v>
@@ -4338,7 +4362,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>48</v>
@@ -4361,9 +4385,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
@@ -4387,19 +4413,21 @@
         <v>61</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="R34" t="s" s="2">
         <v>41</v>
@@ -4441,7 +4469,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4464,11 +4492,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4493,7 +4521,7 @@
         <v>99</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>96</v>
@@ -4546,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -4569,7 +4597,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4595,10 +4623,10 @@
         <v>67</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4628,10 +4656,10 @@
         <v>106</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -4649,7 +4677,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>48</v>
@@ -4672,7 +4700,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4698,13 +4726,13 @@
         <v>61</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -4754,7 +4782,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -4777,7 +4805,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4803,13 +4831,13 @@
         <v>122</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4859,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -4882,7 +4910,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4908,13 +4936,13 @@
         <v>122</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -4964,7 +4992,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -4987,7 +5015,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5010,16 +5038,16 @@
         <v>49</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5045,31 +5073,31 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>

--- a/docs/argo-sub-notif.xlsx
+++ b/docs/argo-sub-notif.xlsx
@@ -459,7 +459,7 @@
     <t>trigger-description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-trigger-event]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-subscription-triggerevent]]} {[]}
 </t>
   </si>
   <si>
@@ -487,13 +487,13 @@
     <t>Subscription Trigger Event FHIRPath Extension</t>
   </si>
   <si>
-    <t>If the expression is a [FHIRPath](http://hl7.org/fhirpath/) expression, it evaluates in the context of a resource of one of the types identified in the [Subscription Event Focus Extension](StructureDefinition-extension-event-focus.html), and may also refer to the variable `%previous`  for delta comparisons.</t>
+    <t>If the expression is a [FHIRPath](http://hl7.org/fhirpath/) expression, it evaluates in the context of a resource of one of the types identified in the [Subscription Event Focus Extension](StructureDefinition-extension-subscription-eventfocus.html), and may also refer to the variable `%previous`  for delta comparisons.</t>
   </si>
   <si>
     <t>event-focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-event-focus]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-subscription-eventfocus]]} {[]}
 </t>
   </si>
   <si>
@@ -533,7 +533,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-event-focus"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-subscription-eventfocus"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -617,7 +617,7 @@
     <t>payload-profile</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-payload-profile]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-subscription-payloadprofile]]} {[]}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>Subscription.channel.extension.url</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-payload-profile"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://fhir.org/guides/argonaut-scheduling/StructureDefinition/extension-subscription-payloadprofile"/&gt;</t>
   </si>
   <si>
     <t>Subscription.channel.extension.valueUri</t>
